--- a/xlsx/制度_intext.xlsx
+++ b/xlsx/制度_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>體制</t>
+    <t>体制</t>
   </si>
   <si>
     <t>政策_政策_政治_制度</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%A7%A3</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>規則</t>
+    <t>规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E5%BC%8F</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>社會結構</t>
+    <t>社会结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC</t>
   </si>
   <si>
-    <t>價值</t>
+    <t>价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5</t>
@@ -77,31 +77,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%84%E7%96%87</t>
   </si>
   <si>
-    <t>範疇</t>
+    <t>范畴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>行為</t>
+    <t>行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
@@ -113,37 +113,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E8%AD%89%E8%AB%96</t>
   </si>
   <si>
-    <t>實證論</t>
+    <t>实证论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理性選擇理論</t>
+    <t>理性选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>商務印書館（香港）有限公司</t>
+    <t>商务印书馆（香港）有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>

--- a/xlsx/制度_intext.xlsx
+++ b/xlsx/制度_intext.xlsx
@@ -29,7 +29,7 @@
     <t>體制</t>
   </si>
   <si>
-    <t>政策_政策_政治_制度</t>
+    <t>体育运动_体育运动_文化_制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
